--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C4064-0AE2-4CC3-ADA9-8469B670F97E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61616E06-58D8-4940-AAF3-2DE451FF7D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,27 +332,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61616E06-58D8-4940-AAF3-2DE451FF7D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA09BE8A-C244-4711-9589-AEDD0572F2DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -366,6 +366,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
       <c r="F6">
         <v>6</v>
       </c>

--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA09BE8A-C244-4711-9589-AEDD0572F2DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419383DE-BBA1-462B-BA61-CD1947A55C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419383DE-BBA1-462B-BA61-CD1947A55C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A21A2-9E02-427A-B2E5-B0A91298E85E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -351,6 +351,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="C3">
         <v>3</v>
       </c>

--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A21A2-9E02-427A-B2E5-B0A91298E85E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1AAEE-DF68-4EDF-A4C6-44F2FCA6FFBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -344,6 +344,12 @@
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2">

--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1AAEE-DF68-4EDF-A4C6-44F2FCA6FFBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A452D2-3BC6-482B-8A91-A32771C9D3D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,15 +332,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -351,30 +351,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>

--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1AAEE-DF68-4EDF-A4C6-44F2FCA6FFBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A8E41-0E69-476B-BAFE-4CB409287E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -363,6 +363,9 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4">

--- a/table1.xlsx
+++ b/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A8E41-0E69-476B-BAFE-4CB409287E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24101A5D-957B-4053-9060-898C3703546A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -355,6 +355,9 @@
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
